--- a/media/techmart_download_ur.xlsx
+++ b/media/techmart_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F044365-5A17-7742-ADBE-2F4EF70A526B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FA3D5-B566-2A49-A6B7-BA19F4E0C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1240" windowWidth="27840" windowHeight="16740" xr2:uid="{392D9F8D-AFB5-7E47-9560-7FC7F181A4ED}"/>
   </bookViews>
@@ -379,6 +379,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,21 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
     <col min="13" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="29.5" style="55" customWidth="1"/>
+    <col min="16" max="16" width="29.5" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.3">
@@ -775,11 +775,11 @@
       <c r="K2" s="24"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
@@ -833,12 +833,12 @@
       <c r="J5" s="28"/>
       <c r="K5" s="23"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -859,22 +859,22 @@
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -894,7 +894,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" ht="203" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="174" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
-      <c r="P13" s="51"/>
+      <c r="P13" s="48"/>
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
@@ -1032,7 +1032,7 @@
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
       <c r="O14" s="47"/>
-      <c r="P14" s="51"/>
+      <c r="P14" s="48"/>
     </row>
     <row r="15" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
@@ -1050,7 +1050,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
-      <c r="P15" s="51"/>
+      <c r="P15" s="48"/>
     </row>
     <row r="16" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
@@ -1068,7 +1068,7 @@
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
-      <c r="P16" s="51"/>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
@@ -1086,7 +1086,7 @@
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
-      <c r="P17" s="51"/>
+      <c r="P17" s="48"/>
     </row>
     <row r="18" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
@@ -1104,7 +1104,7 @@
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
-      <c r="P18" s="51"/>
+      <c r="P18" s="48"/>
     </row>
     <row r="19" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
@@ -1122,7 +1122,7 @@
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
-      <c r="P19" s="51"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
@@ -1140,7 +1140,7 @@
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
-      <c r="P20" s="51"/>
+      <c r="P20" s="48"/>
     </row>
     <row r="21" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
@@ -1158,7 +1158,7 @@
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
-      <c r="P21" s="51"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
@@ -1176,7 +1176,7 @@
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
-      <c r="P22" s="51"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
@@ -1194,7 +1194,7 @@
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
       <c r="O23" s="47"/>
-      <c r="P23" s="51"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
@@ -1212,7 +1212,7 @@
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
-      <c r="P24" s="51"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" spans="1:16" s="7" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
@@ -1230,7 +1230,7 @@
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
-      <c r="P25" s="51"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
@@ -1248,7 +1248,7 @@
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
@@ -1266,7 +1266,7 @@
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="53"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
@@ -1284,7 +1284,7 @@
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="53"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
@@ -1302,7 +1302,7 @@
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
-      <c r="P29" s="53"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
@@ -1320,7 +1320,7 @@
       <c r="M30" s="44"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
@@ -1338,7 +1338,7 @@
       <c r="M31" s="44"/>
       <c r="N31" s="44"/>
       <c r="O31" s="44"/>
-      <c r="P31" s="53"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
@@ -1356,7 +1356,7 @@
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
-      <c r="P32" s="53"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
@@ -1374,7 +1374,7 @@
       <c r="M33" s="44"/>
       <c r="N33" s="44"/>
       <c r="O33" s="44"/>
-      <c r="P33" s="53"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
@@ -1392,7 +1392,7 @@
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
       <c r="O34" s="44"/>
-      <c r="P34" s="53"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
@@ -1410,7 +1410,7 @@
       <c r="M35" s="44"/>
       <c r="N35" s="44"/>
       <c r="O35" s="44"/>
-      <c r="P35" s="53"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
@@ -1428,7 +1428,7 @@
       <c r="M36" s="44"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
-      <c r="P36" s="53"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
@@ -1446,7 +1446,7 @@
       <c r="M37" s="44"/>
       <c r="N37" s="44"/>
       <c r="O37" s="44"/>
-      <c r="P37" s="53"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
@@ -1464,7 +1464,7 @@
       <c r="M38" s="45"/>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
-      <c r="P38" s="54"/>
+      <c r="P38" s="51"/>
     </row>
     <row r="39" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
@@ -1482,7 +1482,7 @@
       <c r="M39" s="45"/>
       <c r="N39" s="45"/>
       <c r="O39" s="45"/>
-      <c r="P39" s="54"/>
+      <c r="P39" s="51"/>
     </row>
     <row r="40" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
@@ -1500,7 +1500,7 @@
       <c r="M40" s="45"/>
       <c r="N40" s="45"/>
       <c r="O40" s="45"/>
-      <c r="P40" s="54"/>
+      <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
@@ -1518,7 +1518,7 @@
       <c r="M41" s="45"/>
       <c r="N41" s="45"/>
       <c r="O41" s="45"/>
-      <c r="P41" s="54"/>
+      <c r="P41" s="51"/>
     </row>
     <row r="42" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
@@ -1536,7 +1536,7 @@
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
       <c r="O42" s="45"/>
-      <c r="P42" s="54"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
@@ -1554,7 +1554,7 @@
       <c r="M43" s="45"/>
       <c r="N43" s="45"/>
       <c r="O43" s="45"/>
-      <c r="P43" s="54"/>
+      <c r="P43" s="51"/>
     </row>
     <row r="44" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
@@ -1572,7 +1572,7 @@
       <c r="M44" s="45"/>
       <c r="N44" s="45"/>
       <c r="O44" s="45"/>
-      <c r="P44" s="54"/>
+      <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
@@ -1590,7 +1590,7 @@
       <c r="M45" s="45"/>
       <c r="N45" s="45"/>
       <c r="O45" s="45"/>
-      <c r="P45" s="54"/>
+      <c r="P45" s="51"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
@@ -1608,7 +1608,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
-      <c r="P46" s="54"/>
+      <c r="P46" s="51"/>
     </row>
     <row r="47" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
@@ -1626,7 +1626,7 @@
       <c r="M47" s="45"/>
       <c r="N47" s="45"/>
       <c r="O47" s="45"/>
-      <c r="P47" s="54"/>
+      <c r="P47" s="51"/>
     </row>
     <row r="48" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
@@ -1644,7 +1644,7 @@
       <c r="M48" s="45"/>
       <c r="N48" s="45"/>
       <c r="O48" s="45"/>
-      <c r="P48" s="54"/>
+      <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
@@ -1662,7 +1662,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="45"/>
       <c r="O49" s="45"/>
-      <c r="P49" s="54"/>
+      <c r="P49" s="51"/>
     </row>
     <row r="50" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
@@ -1680,7 +1680,7 @@
       <c r="M50" s="45"/>
       <c r="N50" s="45"/>
       <c r="O50" s="45"/>
-      <c r="P50" s="54"/>
+      <c r="P50" s="51"/>
     </row>
     <row r="51" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
@@ -1698,7 +1698,7 @@
       <c r="M51" s="45"/>
       <c r="N51" s="45"/>
       <c r="O51" s="45"/>
-      <c r="P51" s="54"/>
+      <c r="P51" s="51"/>
     </row>
     <row r="52" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
@@ -1716,7 +1716,7 @@
       <c r="M52" s="45"/>
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
-      <c r="P52" s="54"/>
+      <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
@@ -1734,7 +1734,7 @@
       <c r="M53" s="45"/>
       <c r="N53" s="45"/>
       <c r="O53" s="45"/>
-      <c r="P53" s="54"/>
+      <c r="P53" s="51"/>
     </row>
     <row r="54" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
@@ -1752,7 +1752,7 @@
       <c r="M54" s="45"/>
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
-      <c r="P54" s="54"/>
+      <c r="P54" s="51"/>
     </row>
     <row r="55" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
@@ -1770,7 +1770,7 @@
       <c r="M55" s="45"/>
       <c r="N55" s="45"/>
       <c r="O55" s="45"/>
-      <c r="P55" s="54"/>
+      <c r="P55" s="51"/>
     </row>
     <row r="56" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
@@ -1788,7 +1788,7 @@
       <c r="M56" s="45"/>
       <c r="N56" s="45"/>
       <c r="O56" s="45"/>
-      <c r="P56" s="54"/>
+      <c r="P56" s="51"/>
     </row>
     <row r="57" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
@@ -1806,7 +1806,7 @@
       <c r="M57" s="45"/>
       <c r="N57" s="45"/>
       <c r="O57" s="45"/>
-      <c r="P57" s="54"/>
+      <c r="P57" s="51"/>
     </row>
     <row r="58" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
@@ -1824,7 +1824,7 @@
       <c r="M58" s="45"/>
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
-      <c r="P58" s="54"/>
+      <c r="P58" s="51"/>
     </row>
     <row r="59" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
@@ -1842,7 +1842,7 @@
       <c r="M59" s="45"/>
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
-      <c r="P59" s="54"/>
+      <c r="P59" s="51"/>
     </row>
     <row r="60" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
@@ -1860,7 +1860,7 @@
       <c r="M60" s="45"/>
       <c r="N60" s="45"/>
       <c r="O60" s="45"/>
-      <c r="P60" s="54"/>
+      <c r="P60" s="51"/>
     </row>
     <row r="61" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -1878,7 +1878,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="45"/>
       <c r="O61" s="45"/>
-      <c r="P61" s="54"/>
+      <c r="P61" s="51"/>
     </row>
     <row r="62" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
@@ -1896,7 +1896,7 @@
       <c r="M62" s="45"/>
       <c r="N62" s="45"/>
       <c r="O62" s="45"/>
-      <c r="P62" s="54"/>
+      <c r="P62" s="51"/>
     </row>
     <row r="63" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
@@ -1914,7 +1914,7 @@
       <c r="M63" s="45"/>
       <c r="N63" s="45"/>
       <c r="O63" s="45"/>
-      <c r="P63" s="54"/>
+      <c r="P63" s="51"/>
     </row>
     <row r="64" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
@@ -1932,7 +1932,7 @@
       <c r="M64" s="45"/>
       <c r="N64" s="45"/>
       <c r="O64" s="45"/>
-      <c r="P64" s="54"/>
+      <c r="P64" s="51"/>
     </row>
     <row r="65" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
@@ -1950,7 +1950,7 @@
       <c r="M65" s="45"/>
       <c r="N65" s="45"/>
       <c r="O65" s="45"/>
-      <c r="P65" s="54"/>
+      <c r="P65" s="51"/>
     </row>
     <row r="66" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
@@ -1968,7 +1968,7 @@
       <c r="M66" s="45"/>
       <c r="N66" s="45"/>
       <c r="O66" s="45"/>
-      <c r="P66" s="54"/>
+      <c r="P66" s="51"/>
     </row>
     <row r="67" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
@@ -1986,7 +1986,7 @@
       <c r="M67" s="45"/>
       <c r="N67" s="45"/>
       <c r="O67" s="45"/>
-      <c r="P67" s="54"/>
+      <c r="P67" s="51"/>
     </row>
     <row r="68" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
@@ -2004,7 +2004,7 @@
       <c r="M68" s="45"/>
       <c r="N68" s="45"/>
       <c r="O68" s="45"/>
-      <c r="P68" s="54"/>
+      <c r="P68" s="51"/>
     </row>
     <row r="69" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
@@ -2022,7 +2022,7 @@
       <c r="M69" s="45"/>
       <c r="N69" s="45"/>
       <c r="O69" s="45"/>
-      <c r="P69" s="54"/>
+      <c r="P69" s="51"/>
     </row>
     <row r="70" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
@@ -2040,7 +2040,7 @@
       <c r="M70" s="45"/>
       <c r="N70" s="45"/>
       <c r="O70" s="45"/>
-      <c r="P70" s="54"/>
+      <c r="P70" s="51"/>
     </row>
     <row r="71" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
@@ -2058,7 +2058,7 @@
       <c r="M71" s="45"/>
       <c r="N71" s="45"/>
       <c r="O71" s="45"/>
-      <c r="P71" s="54"/>
+      <c r="P71" s="51"/>
     </row>
     <row r="72" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
@@ -2076,7 +2076,7 @@
       <c r="M72" s="45"/>
       <c r="N72" s="45"/>
       <c r="O72" s="45"/>
-      <c r="P72" s="54"/>
+      <c r="P72" s="51"/>
     </row>
     <row r="73" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A73" s="45"/>
@@ -2094,7 +2094,7 @@
       <c r="M73" s="45"/>
       <c r="N73" s="45"/>
       <c r="O73" s="45"/>
-      <c r="P73" s="54"/>
+      <c r="P73" s="51"/>
     </row>
     <row r="74" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="45"/>
@@ -2112,7 +2112,7 @@
       <c r="M74" s="45"/>
       <c r="N74" s="45"/>
       <c r="O74" s="45"/>
-      <c r="P74" s="54"/>
+      <c r="P74" s="51"/>
     </row>
     <row r="75" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="45"/>
@@ -2130,7 +2130,7 @@
       <c r="M75" s="45"/>
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
-      <c r="P75" s="54"/>
+      <c r="P75" s="51"/>
     </row>
     <row r="76" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A76" s="45"/>
@@ -2148,7 +2148,7 @@
       <c r="M76" s="45"/>
       <c r="N76" s="45"/>
       <c r="O76" s="45"/>
-      <c r="P76" s="54"/>
+      <c r="P76" s="51"/>
     </row>
     <row r="77" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
@@ -2166,7 +2166,7 @@
       <c r="M77" s="45"/>
       <c r="N77" s="45"/>
       <c r="O77" s="45"/>
-      <c r="P77" s="54"/>
+      <c r="P77" s="51"/>
     </row>
     <row r="78" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="45"/>
@@ -2184,7 +2184,7 @@
       <c r="M78" s="45"/>
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
-      <c r="P78" s="54"/>
+      <c r="P78" s="51"/>
     </row>
     <row r="79" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="45"/>
@@ -2202,7 +2202,7 @@
       <c r="M79" s="45"/>
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
-      <c r="P79" s="54"/>
+      <c r="P79" s="51"/>
     </row>
     <row r="80" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="45"/>
@@ -2220,7 +2220,7 @@
       <c r="M80" s="45"/>
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
-      <c r="P80" s="54"/>
+      <c r="P80" s="51"/>
     </row>
     <row r="81" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="45"/>
@@ -2238,7 +2238,7 @@
       <c r="M81" s="45"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
-      <c r="P81" s="54"/>
+      <c r="P81" s="51"/>
     </row>
     <row r="82" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A82" s="45"/>
@@ -2256,7 +2256,7 @@
       <c r="M82" s="45"/>
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
-      <c r="P82" s="54"/>
+      <c r="P82" s="51"/>
     </row>
     <row r="83" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A83" s="45"/>
@@ -2274,7 +2274,7 @@
       <c r="M83" s="45"/>
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
-      <c r="P83" s="54"/>
+      <c r="P83" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
